--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Galr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Galr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H2">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I2">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J2">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05571033333333333</v>
+        <v>0.03918366666666667</v>
       </c>
       <c r="N2">
-        <v>0.167131</v>
+        <v>0.117551</v>
       </c>
       <c r="O2">
-        <v>0.2229876132075975</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2229876132075975</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3250427754883333</v>
+        <v>0.06960135934500002</v>
       </c>
       <c r="R2">
-        <v>2.925384979395</v>
+        <v>0.6264122341050001</v>
       </c>
       <c r="S2">
-        <v>0.0436833772916401</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="T2">
-        <v>0.0436833772916401</v>
+        <v>0.2250740306326953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.834515</v>
+        <v>1.407624</v>
       </c>
       <c r="H3">
-        <v>17.503545</v>
+        <v>4.222872</v>
       </c>
       <c r="I3">
-        <v>0.1959004657849387</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J3">
-        <v>0.1959004657849387</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1941256666666667</v>
+        <v>0.03918366666666667</v>
       </c>
       <c r="N3">
-        <v>0.582377</v>
+        <v>0.117551</v>
       </c>
       <c r="O3">
-        <v>0.7770123867924025</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7770123867924025</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.132629114051667</v>
+        <v>0.055155869608</v>
       </c>
       <c r="R3">
-        <v>10.193662026465</v>
+        <v>0.496402826472</v>
       </c>
       <c r="S3">
-        <v>0.1522170884932986</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="T3">
-        <v>0.1522170884932986</v>
+        <v>0.1783607964348722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.407624</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H4">
-        <v>4.222872</v>
+        <v>12.744322</v>
       </c>
       <c r="I4">
-        <v>0.04726257405286619</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J4">
-        <v>0.04726257405286619</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05571033333333333</v>
+        <v>0.03918366666666667</v>
       </c>
       <c r="N4">
-        <v>0.167131</v>
+        <v>0.117551</v>
       </c>
       <c r="O4">
-        <v>0.2229876132075975</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2229876132075975</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.078419202248</v>
+        <v>0.1664564217135555</v>
       </c>
       <c r="R4">
-        <v>0.7057728202319999</v>
+        <v>1.498107795422</v>
       </c>
       <c r="S4">
-        <v>0.01053896858209596</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="T4">
-        <v>0.01053896858209596</v>
+        <v>0.5382799720054181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.407624</v>
+        <v>0.459987</v>
       </c>
       <c r="H5">
-        <v>4.222872</v>
+        <v>1.379961</v>
       </c>
       <c r="I5">
-        <v>0.04726257405286619</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="J5">
-        <v>0.04726257405286619</v>
+        <v>0.0582852009270143</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,276 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1941256666666667</v>
+        <v>0.03918366666666667</v>
       </c>
       <c r="N5">
-        <v>0.582377</v>
+        <v>0.117551</v>
       </c>
       <c r="O5">
-        <v>0.7770123867924025</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.7770123867924025</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.273255947416</v>
+        <v>0.018023977279</v>
       </c>
       <c r="R5">
-        <v>2.459303526744</v>
+        <v>0.162215795511</v>
       </c>
       <c r="S5">
-        <v>0.03672360547077023</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="T5">
-        <v>0.03672360547077023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>21.67710466666666</v>
-      </c>
-      <c r="H6">
-        <v>65.03131399999999</v>
-      </c>
-      <c r="I6">
-        <v>0.7278334019312434</v>
-      </c>
-      <c r="J6">
-        <v>0.7278334019312434</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05571033333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.167131</v>
-      </c>
-      <c r="O6">
-        <v>0.2229876132075975</v>
-      </c>
-      <c r="P6">
-        <v>0.2229876132075975</v>
-      </c>
-      <c r="Q6">
-        <v>1.207638726681555</v>
-      </c>
-      <c r="R6">
-        <v>10.868748540134</v>
-      </c>
-      <c r="S6">
-        <v>0.162297833109414</v>
-      </c>
-      <c r="T6">
-        <v>0.1622978331094139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>21.67710466666666</v>
-      </c>
-      <c r="H7">
-        <v>65.03131399999999</v>
-      </c>
-      <c r="I7">
-        <v>0.7278334019312434</v>
-      </c>
-      <c r="J7">
-        <v>0.7278334019312434</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1941256666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.582377</v>
-      </c>
-      <c r="O7">
-        <v>0.7770123867924025</v>
-      </c>
-      <c r="P7">
-        <v>0.7770123867924025</v>
-      </c>
-      <c r="Q7">
-        <v>4.208082394819778</v>
-      </c>
-      <c r="R7">
-        <v>37.872741553378</v>
-      </c>
-      <c r="S7">
-        <v>0.5655355688218294</v>
-      </c>
-      <c r="T7">
-        <v>0.5655355688218294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8638146666666667</v>
-      </c>
-      <c r="H8">
-        <v>2.591444</v>
-      </c>
-      <c r="I8">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="J8">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.05571033333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.167131</v>
-      </c>
-      <c r="O8">
-        <v>0.2229876132075975</v>
-      </c>
-      <c r="P8">
-        <v>0.2229876132075975</v>
-      </c>
-      <c r="Q8">
-        <v>0.04812340301822222</v>
-      </c>
-      <c r="R8">
-        <v>0.433110627164</v>
-      </c>
-      <c r="S8">
-        <v>0.006467434224447505</v>
-      </c>
-      <c r="T8">
-        <v>0.006467434224447505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8638146666666667</v>
-      </c>
-      <c r="H9">
-        <v>2.591444</v>
-      </c>
-      <c r="I9">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="J9">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1941256666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.582377</v>
-      </c>
-      <c r="O9">
-        <v>0.7770123867924025</v>
-      </c>
-      <c r="P9">
-        <v>0.7770123867924025</v>
-      </c>
-      <c r="Q9">
-        <v>0.1676885980431111</v>
-      </c>
-      <c r="R9">
-        <v>1.509197382388</v>
-      </c>
-      <c r="S9">
-        <v>0.02253612400650427</v>
-      </c>
-      <c r="T9">
-        <v>0.02253612400650427</v>
+        <v>0.0582852009270143</v>
       </c>
     </row>
   </sheetData>
